--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3202,28 +3202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2680.108686995046</v>
+        <v>2818.071890013639</v>
       </c>
       <c r="AB2" t="n">
-        <v>3667.04294359728</v>
+        <v>3855.810284474282</v>
       </c>
       <c r="AC2" t="n">
-        <v>3317.065511787312</v>
+        <v>3487.817162587634</v>
       </c>
       <c r="AD2" t="n">
-        <v>2680108.686995046</v>
+        <v>2818071.890013639</v>
       </c>
       <c r="AE2" t="n">
-        <v>3667042.943597279</v>
+        <v>3855810.284474282</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.019294494980186e-06</v>
+        <v>1.469480601021966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.81875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3317065.511787312</v>
+        <v>3487817.162587634</v>
       </c>
     </row>
     <row r="3">
@@ -3308,28 +3308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>908.6927653644451</v>
+        <v>986.2223938146534</v>
       </c>
       <c r="AB3" t="n">
-        <v>1243.313530267124</v>
+        <v>1349.392988278509</v>
       </c>
       <c r="AC3" t="n">
-        <v>1124.653431939929</v>
+        <v>1220.608815362161</v>
       </c>
       <c r="AD3" t="n">
-        <v>908692.7653644452</v>
+        <v>986222.3938146534</v>
       </c>
       <c r="AE3" t="n">
-        <v>1243313.530267124</v>
+        <v>1349392.988278509</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.918526106123433e-06</v>
+        <v>2.765870814947742e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.84166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1124653.431939929</v>
+        <v>1220608.815362161</v>
       </c>
     </row>
     <row r="4">
@@ -3414,28 +3414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>696.5743382899474</v>
+        <v>757.0079128583318</v>
       </c>
       <c r="AB4" t="n">
-        <v>953.0837403392487</v>
+        <v>1035.771623204856</v>
       </c>
       <c r="AC4" t="n">
-        <v>862.1227658227011</v>
+        <v>936.9190332007868</v>
       </c>
       <c r="AD4" t="n">
-        <v>696574.3382899474</v>
+        <v>757007.9128583318</v>
       </c>
       <c r="AE4" t="n">
-        <v>953083.7403392487</v>
+        <v>1035771.623204856</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.247349605720591e-06</v>
+        <v>3.239923952875825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.525</v>
       </c>
       <c r="AH4" t="n">
-        <v>862122.7658227012</v>
+        <v>936919.0332007868</v>
       </c>
     </row>
     <row r="5">
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>606.2658201070967</v>
+        <v>666.6140538209096</v>
       </c>
       <c r="AB5" t="n">
-        <v>829.5196416308361</v>
+        <v>912.0907573742452</v>
       </c>
       <c r="AC5" t="n">
-        <v>750.3514512717176</v>
+        <v>825.0420956178646</v>
       </c>
       <c r="AD5" t="n">
-        <v>606265.8201070967</v>
+        <v>666614.0538209096</v>
       </c>
       <c r="AE5" t="n">
-        <v>829519.6416308361</v>
+        <v>912090.7573742452</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.420076767886977e-06</v>
+        <v>3.488938555940089e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.55833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>750351.4512717176</v>
+        <v>825042.0956178645</v>
       </c>
     </row>
     <row r="6">
@@ -3626,28 +3626,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>544.5883409141923</v>
+        <v>604.8512337734334</v>
       </c>
       <c r="AB6" t="n">
-        <v>745.129793580762</v>
+        <v>827.5841422019735</v>
       </c>
       <c r="AC6" t="n">
-        <v>674.0156518776469</v>
+        <v>748.600673191855</v>
       </c>
       <c r="AD6" t="n">
-        <v>544588.3409141923</v>
+        <v>604851.2337734334</v>
       </c>
       <c r="AE6" t="n">
-        <v>745129.793580762</v>
+        <v>827584.1422019735</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.535909003326259e-06</v>
+        <v>3.655929767792306e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.98541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>674015.6518776469</v>
+        <v>748600.673191855</v>
       </c>
     </row>
     <row r="7">
@@ -3732,28 +3732,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>507.6492792952668</v>
+        <v>559.4494860681679</v>
       </c>
       <c r="AB7" t="n">
-        <v>694.5881398373638</v>
+        <v>765.4634680078838</v>
       </c>
       <c r="AC7" t="n">
-        <v>628.2976226318621</v>
+        <v>692.4087089559355</v>
       </c>
       <c r="AD7" t="n">
-        <v>507649.2792952668</v>
+        <v>559449.4860681678</v>
       </c>
       <c r="AE7" t="n">
-        <v>694588.1398373637</v>
+        <v>765463.4680078838</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.606662950666375e-06</v>
+        <v>3.757933215838055e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.66041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>628297.6226318621</v>
+        <v>692408.7089559354</v>
       </c>
     </row>
     <row r="8">
@@ -3838,28 +3838,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>494.9267697271894</v>
+        <v>546.7269765000905</v>
       </c>
       <c r="AB8" t="n">
-        <v>677.1806409688111</v>
+        <v>748.0559691393313</v>
       </c>
       <c r="AC8" t="n">
-        <v>612.5514710237461</v>
+        <v>676.6625573478194</v>
       </c>
       <c r="AD8" t="n">
-        <v>494926.7697271894</v>
+        <v>546726.9765000904</v>
       </c>
       <c r="AE8" t="n">
-        <v>677180.6409688111</v>
+        <v>748055.9691393313</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.630150343494744e-06</v>
+        <v>3.79179415426149e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.55625</v>
       </c>
       <c r="AH8" t="n">
-        <v>612551.4710237461</v>
+        <v>676662.5573478194</v>
       </c>
     </row>
     <row r="9">
@@ -3944,28 +3944,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>496.1561177859006</v>
+        <v>547.9563245588016</v>
       </c>
       <c r="AB9" t="n">
-        <v>678.8626892177483</v>
+        <v>749.7380173882684</v>
       </c>
       <c r="AC9" t="n">
-        <v>614.0729869485742</v>
+        <v>678.1840732726475</v>
       </c>
       <c r="AD9" t="n">
-        <v>496156.1177859006</v>
+        <v>547956.3245588016</v>
       </c>
       <c r="AE9" t="n">
-        <v>678862.6892177484</v>
+        <v>749738.0173882684</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.630442112349754e-06</v>
+        <v>3.792214787036936e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.55416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>614072.9869485742</v>
+        <v>678184.0732726476</v>
       </c>
     </row>
     <row r="10">
@@ -4050,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>496.2776607385512</v>
+        <v>548.0778675114522</v>
       </c>
       <c r="AB10" t="n">
-        <v>679.0289896476614</v>
+        <v>749.9043178181815</v>
       </c>
       <c r="AC10" t="n">
-        <v>614.2234158988606</v>
+        <v>678.334502222934</v>
       </c>
       <c r="AD10" t="n">
-        <v>496277.6607385512</v>
+        <v>548077.8675114522</v>
       </c>
       <c r="AE10" t="n">
-        <v>679028.9896476615</v>
+        <v>749904.3178181816</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.635256298457433e-06</v>
+        <v>3.799155227831802e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.53333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>614223.4158988605</v>
+        <v>678334.502222934</v>
       </c>
     </row>
   </sheetData>
@@ -4347,28 +4347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1621.522087538028</v>
+        <v>1722.360577997472</v>
       </c>
       <c r="AB2" t="n">
-        <v>2218.638056675239</v>
+        <v>2356.609728002077</v>
       </c>
       <c r="AC2" t="n">
-        <v>2006.894354424223</v>
+        <v>2131.698203084085</v>
       </c>
       <c r="AD2" t="n">
-        <v>1621522.087538028</v>
+        <v>1722360.577997472</v>
       </c>
       <c r="AE2" t="n">
-        <v>2218638.056675239</v>
+        <v>2356609.728002077</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.346919937956274e-06</v>
+        <v>1.971840119450328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.34166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2006894.354424223</v>
+        <v>2131698.203084085</v>
       </c>
     </row>
     <row r="3">
@@ -4453,28 +4453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>713.088928958036</v>
+        <v>771.9256424970366</v>
       </c>
       <c r="AB3" t="n">
-        <v>975.6797318636477</v>
+        <v>1056.182719020315</v>
       </c>
       <c r="AC3" t="n">
-        <v>882.5622276296847</v>
+        <v>955.3821226787717</v>
       </c>
       <c r="AD3" t="n">
-        <v>713088.928958036</v>
+        <v>771925.6424970366</v>
       </c>
       <c r="AE3" t="n">
-        <v>975679.7318636477</v>
+        <v>1056182.719020315</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.17438907182902e-06</v>
+        <v>3.183223802917684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.46041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>882562.2276296847</v>
+        <v>955382.1226787717</v>
       </c>
     </row>
     <row r="4">
@@ -4559,28 +4559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>561.6417819869258</v>
+        <v>620.4784060173755</v>
       </c>
       <c r="AB4" t="n">
-        <v>768.4630640011987</v>
+        <v>848.9659286883174</v>
       </c>
       <c r="AC4" t="n">
-        <v>695.1220277176078</v>
+        <v>767.941811985468</v>
       </c>
       <c r="AD4" t="n">
-        <v>561641.7819869259</v>
+        <v>620478.4060173755</v>
       </c>
       <c r="AE4" t="n">
-        <v>768463.0640011987</v>
+        <v>848965.9286883174</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.47169240827427e-06</v>
+        <v>3.61846470323333e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.72083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>695122.0277176078</v>
+        <v>767941.811985468</v>
       </c>
     </row>
     <row r="5">
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>486.2011792628039</v>
+        <v>544.9524624386819</v>
       </c>
       <c r="AB5" t="n">
-        <v>665.2419031495556</v>
+        <v>745.6280007144768</v>
       </c>
       <c r="AC5" t="n">
-        <v>601.7521495858364</v>
+        <v>674.4663108217579</v>
       </c>
       <c r="AD5" t="n">
-        <v>486201.1792628039</v>
+        <v>544952.4624386819</v>
       </c>
       <c r="AE5" t="n">
-        <v>665241.9031495556</v>
+        <v>745628.0007144768</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.63271913923218e-06</v>
+        <v>3.854201779698708e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.94166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>601752.1495858363</v>
+        <v>674466.3108217579</v>
       </c>
     </row>
     <row r="6">
@@ -4771,28 +4771,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>459.4979445893111</v>
+        <v>510.0024859193292</v>
       </c>
       <c r="AB6" t="n">
-        <v>628.7053594057124</v>
+        <v>697.8079009565553</v>
       </c>
       <c r="AC6" t="n">
-        <v>568.7026022975444</v>
+        <v>631.210094268801</v>
       </c>
       <c r="AD6" t="n">
-        <v>459497.9445893111</v>
+        <v>510002.4859193292</v>
       </c>
       <c r="AE6" t="n">
-        <v>628705.3594057125</v>
+        <v>697807.9009565553</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.691877975722809e-06</v>
+        <v>3.940808090827507e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.67916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>568702.6022975445</v>
+        <v>631210.0942688009</v>
       </c>
     </row>
     <row r="7">
@@ -4877,28 +4877,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>460.1622985780942</v>
+        <v>510.6668399081124</v>
       </c>
       <c r="AB7" t="n">
-        <v>629.6143578423951</v>
+        <v>698.7168993932377</v>
       </c>
       <c r="AC7" t="n">
-        <v>569.5248471992173</v>
+        <v>632.0323391704738</v>
       </c>
       <c r="AD7" t="n">
-        <v>460162.2985780942</v>
+        <v>510666.8399081124</v>
       </c>
       <c r="AE7" t="n">
-        <v>629614.3578423951</v>
+        <v>698716.8993932377</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.696254522299921e-06</v>
+        <v>3.9472151903753e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.66041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>569524.8471992173</v>
+        <v>632032.3391704739</v>
       </c>
     </row>
   </sheetData>
@@ -5174,28 +5174,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>523.2273744521979</v>
+        <v>585.2803434715451</v>
       </c>
       <c r="AB2" t="n">
-        <v>715.9027768881308</v>
+        <v>800.8063866841858</v>
       </c>
       <c r="AC2" t="n">
-        <v>647.5780206377849</v>
+        <v>724.3785490778691</v>
       </c>
       <c r="AD2" t="n">
-        <v>523227.3744521978</v>
+        <v>585280.343471545</v>
       </c>
       <c r="AE2" t="n">
-        <v>715902.7768881308</v>
+        <v>800806.3866841858</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.397168313372465e-06</v>
+        <v>3.70871527026005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.63541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>647578.0206377849</v>
+        <v>724378.5490778692</v>
       </c>
     </row>
     <row r="3">
@@ -5280,28 +5280,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.525533923915</v>
+        <v>443.8112142090222</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.9660201684262</v>
+        <v>607.2420828496994</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.1004912260581</v>
+        <v>549.2877507321394</v>
       </c>
       <c r="AD3" t="n">
-        <v>389525.5339239149</v>
+        <v>443811.2142090222</v>
       </c>
       <c r="AE3" t="n">
-        <v>532966.0201684262</v>
+        <v>607242.0828496994</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.784318994963142e-06</v>
+        <v>4.307685161818031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>482100.4912260581</v>
+        <v>549287.7507321395</v>
       </c>
     </row>
     <row r="4">
@@ -5386,28 +5386,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>391.7941254336922</v>
+        <v>446.0798057187995</v>
       </c>
       <c r="AB4" t="n">
-        <v>536.0700071552973</v>
+        <v>610.3460698365707</v>
       </c>
       <c r="AC4" t="n">
-        <v>484.9082380513753</v>
+        <v>552.0954975574566</v>
       </c>
       <c r="AD4" t="n">
-        <v>391794.1254336922</v>
+        <v>446079.8057187995</v>
       </c>
       <c r="AE4" t="n">
-        <v>536070.0071552973</v>
+        <v>610346.0698365706</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.784655794164178e-06</v>
+        <v>4.30820623175414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.59791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>484908.2380513754</v>
+        <v>552095.4975574566</v>
       </c>
     </row>
     <row r="5">
@@ -5492,28 +5492,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>393.4449217927437</v>
+        <v>447.7306020778511</v>
       </c>
       <c r="AB5" t="n">
-        <v>538.328699561747</v>
+        <v>612.6047622430203</v>
       </c>
       <c r="AC5" t="n">
-        <v>486.9513640246482</v>
+        <v>554.1386235307295</v>
       </c>
       <c r="AD5" t="n">
-        <v>393444.9217927437</v>
+        <v>447730.6020778511</v>
       </c>
       <c r="AE5" t="n">
-        <v>538328.699561747</v>
+        <v>612604.7622430203</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.788192185775054e-06</v>
+        <v>4.313677466083291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>486951.3640246482</v>
+        <v>554138.6235307296</v>
       </c>
     </row>
   </sheetData>
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>796.2796949924266</v>
+        <v>860.4515085949344</v>
       </c>
       <c r="AB2" t="n">
-        <v>1089.505008069475</v>
+        <v>1177.307714501035</v>
       </c>
       <c r="AC2" t="n">
-        <v>985.524179229206</v>
+        <v>1064.947118590811</v>
       </c>
       <c r="AD2" t="n">
-        <v>796279.6949924266</v>
+        <v>860451.5085949344</v>
       </c>
       <c r="AE2" t="n">
-        <v>1089505.008069475</v>
+        <v>1177307.714501035</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.967706595720611e-06</v>
+        <v>2.973783109771042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.05625</v>
       </c>
       <c r="AH2" t="n">
-        <v>985524.1792292059</v>
+        <v>1064947.118590811</v>
       </c>
     </row>
     <row r="3">
@@ -5895,28 +5895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.5820965664764</v>
+        <v>506.6470142941169</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.5063028014158</v>
+        <v>693.2167966459791</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.6678065340784</v>
+        <v>627.0571585099709</v>
       </c>
       <c r="AD3" t="n">
-        <v>450582.0965664764</v>
+        <v>506647.0142941169</v>
       </c>
       <c r="AE3" t="n">
-        <v>616506.3028014158</v>
+        <v>693216.7966459792</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.66560286006167e-06</v>
+        <v>4.028509524666093e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.59166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>557667.8065340784</v>
+        <v>627057.1585099709</v>
       </c>
     </row>
     <row r="4">
@@ -6001,28 +6001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>414.6719084594733</v>
+        <v>462.7154501839202</v>
       </c>
       <c r="AB4" t="n">
-        <v>567.3723991877255</v>
+        <v>633.1076925065855</v>
       </c>
       <c r="AC4" t="n">
-        <v>513.2231737214117</v>
+        <v>572.6847829059835</v>
       </c>
       <c r="AD4" t="n">
-        <v>414671.9084594733</v>
+        <v>462715.4501839202</v>
       </c>
       <c r="AE4" t="n">
-        <v>567372.3991877255</v>
+        <v>633107.6925065855</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.777569135157938e-06</v>
+        <v>4.197723480887714e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>513223.1737214118</v>
+        <v>572684.7829059835</v>
       </c>
     </row>
     <row r="5">
@@ -6107,28 +6107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>416.3328910140087</v>
+        <v>464.3764327384556</v>
       </c>
       <c r="AB5" t="n">
-        <v>569.6450287962195</v>
+        <v>635.3803221150796</v>
       </c>
       <c r="AC5" t="n">
-        <v>515.2789067497267</v>
+        <v>574.7405159342985</v>
       </c>
       <c r="AD5" t="n">
-        <v>416332.8910140087</v>
+        <v>464376.4327384556</v>
       </c>
       <c r="AE5" t="n">
-        <v>569645.0287962195</v>
+        <v>635380.3221150796</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.777891340266129e-06</v>
+        <v>4.198210427524322e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.08125</v>
       </c>
       <c r="AH5" t="n">
-        <v>515278.9067497267</v>
+        <v>574740.5159342985</v>
       </c>
     </row>
     <row r="6">
@@ -6213,28 +6213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>417.5470770275692</v>
+        <v>465.5906187520161</v>
       </c>
       <c r="AB6" t="n">
-        <v>571.3063316660792</v>
+        <v>637.0416249849394</v>
       </c>
       <c r="AC6" t="n">
-        <v>516.7816572053404</v>
+        <v>576.2432663899122</v>
       </c>
       <c r="AD6" t="n">
-        <v>417547.0770275692</v>
+        <v>465590.6187520161</v>
       </c>
       <c r="AE6" t="n">
-        <v>571306.3316660792</v>
+        <v>637041.6249849393</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.781757801564417e-06</v>
+        <v>4.20405378716363e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.06458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>516781.6572053404</v>
+        <v>576243.2663899121</v>
       </c>
     </row>
   </sheetData>
@@ -6510,28 +6510,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.3218462797869</v>
+        <v>438.0629355391827</v>
       </c>
       <c r="AB2" t="n">
-        <v>527.2143492801199</v>
+        <v>599.377034377468</v>
       </c>
       <c r="AC2" t="n">
-        <v>476.897751734811</v>
+        <v>542.1733314474328</v>
       </c>
       <c r="AD2" t="n">
-        <v>385321.8462797869</v>
+        <v>438062.9355391827</v>
       </c>
       <c r="AE2" t="n">
-        <v>527214.3492801199</v>
+        <v>599377.0343774681</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.71982565269673e-06</v>
+        <v>4.298651779912719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.39791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>476897.751734811</v>
+        <v>542173.3314474329</v>
       </c>
     </row>
     <row r="3">
@@ -6616,28 +6616,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>383.1161990893281</v>
+        <v>435.857288348724</v>
       </c>
       <c r="AB3" t="n">
-        <v>524.1964854878478</v>
+        <v>596.3591705851959</v>
       </c>
       <c r="AC3" t="n">
-        <v>474.1679086272749</v>
+        <v>539.4434883398968</v>
       </c>
       <c r="AD3" t="n">
-        <v>383116.1990893281</v>
+        <v>435857.288348724</v>
       </c>
       <c r="AE3" t="n">
-        <v>524196.4854878478</v>
+        <v>596359.1705851959</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.740813311260398e-06</v>
+        <v>4.331822522218007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.29375</v>
       </c>
       <c r="AH3" t="n">
-        <v>474167.9086272749</v>
+        <v>539443.4883398968</v>
       </c>
     </row>
     <row r="4">
@@ -6722,28 +6722,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.1811395598443</v>
+        <v>437.9222288192402</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.0218281383521</v>
+        <v>599.1845132357004</v>
       </c>
       <c r="AC4" t="n">
-        <v>476.7236045406084</v>
+        <v>541.9991842532304</v>
       </c>
       <c r="AD4" t="n">
-        <v>385181.1395598443</v>
+        <v>437922.2288192402</v>
       </c>
       <c r="AE4" t="n">
-        <v>527021.8281383521</v>
+        <v>599184.5132357003</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.744136357199646e-06</v>
+        <v>4.337074556416344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.27916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>476723.6045406085</v>
+        <v>541999.1842532303</v>
       </c>
     </row>
   </sheetData>
@@ -7019,28 +7019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1823.440082030879</v>
+        <v>1933.519115658032</v>
       </c>
       <c r="AB2" t="n">
-        <v>2494.91116473358</v>
+        <v>2645.52615488647</v>
       </c>
       <c r="AC2" t="n">
-        <v>2256.800344801219</v>
+        <v>2393.040851683383</v>
       </c>
       <c r="AD2" t="n">
-        <v>1823440.082030879</v>
+        <v>1933519.115658032</v>
       </c>
       <c r="AE2" t="n">
-        <v>2494911.16473358</v>
+        <v>2645526.15488647</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.261536381660734e-06</v>
+        <v>1.839176593782401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.69791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2256800.344801219</v>
+        <v>2393040.851683383</v>
       </c>
     </row>
     <row r="3">
@@ -7125,28 +7125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>757.5083585560878</v>
+        <v>825.216478921039</v>
       </c>
       <c r="AB3" t="n">
-        <v>1036.456355086631</v>
+        <v>1129.097592441411</v>
       </c>
       <c r="AC3" t="n">
-        <v>937.5384152327932</v>
+        <v>1021.338102917226</v>
       </c>
       <c r="AD3" t="n">
-        <v>757508.3585560878</v>
+        <v>825216.4789210389</v>
       </c>
       <c r="AE3" t="n">
-        <v>1036456.355086631</v>
+        <v>1129097.592441411</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.105801097069726e-06</v>
+        <v>3.070018546586391e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.79583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>937538.4152327932</v>
+        <v>1021338.102917226</v>
       </c>
     </row>
     <row r="4">
@@ -7231,28 +7231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>592.6553123300833</v>
+        <v>651.8892500425941</v>
       </c>
       <c r="AB4" t="n">
-        <v>810.8971444371012</v>
+        <v>891.9436312322584</v>
       </c>
       <c r="AC4" t="n">
-        <v>733.5062590733137</v>
+        <v>806.8177829182</v>
       </c>
       <c r="AD4" t="n">
-        <v>592655.3123300833</v>
+        <v>651889.250042594</v>
       </c>
       <c r="AE4" t="n">
-        <v>810897.1444371012</v>
+        <v>891943.6312322584</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.412847237146724e-06</v>
+        <v>3.517656904266921e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.91458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>733506.2590733137</v>
+        <v>806817.7829182</v>
       </c>
     </row>
     <row r="5">
@@ -7337,28 +7337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>523.3729014185493</v>
+        <v>574.1327459871707</v>
       </c>
       <c r="AB5" t="n">
-        <v>716.1018933036895</v>
+        <v>785.5537520087731</v>
       </c>
       <c r="AC5" t="n">
-        <v>647.7581336621043</v>
+        <v>710.5816044486706</v>
       </c>
       <c r="AD5" t="n">
-        <v>523372.9014185493</v>
+        <v>574132.7459871706</v>
       </c>
       <c r="AE5" t="n">
-        <v>716101.8933036895</v>
+        <v>785553.7520087732</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.574820432326164e-06</v>
+        <v>3.753795404689724e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="AH5" t="n">
-        <v>647758.1336621044</v>
+        <v>710581.6044486706</v>
       </c>
     </row>
     <row r="6">
@@ -7443,28 +7443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>471.4699612805498</v>
+        <v>522.3150571951918</v>
       </c>
       <c r="AB6" t="n">
-        <v>645.0860008107657</v>
+        <v>714.6545041684984</v>
       </c>
       <c r="AC6" t="n">
-        <v>583.519898277274</v>
+        <v>646.4488813145524</v>
       </c>
       <c r="AD6" t="n">
-        <v>471469.9612805498</v>
+        <v>522315.0571951919</v>
       </c>
       <c r="AE6" t="n">
-        <v>645086.0008107657</v>
+        <v>714654.5041684984</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.668295267956035e-06</v>
+        <v>3.890071085912487e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.67708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>583519.898277274</v>
+        <v>646448.8813145524</v>
       </c>
     </row>
     <row r="7">
@@ -7549,28 +7549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>468.4939453854133</v>
+        <v>519.3390413000553</v>
       </c>
       <c r="AB7" t="n">
-        <v>641.0140845704847</v>
+        <v>710.5825879282175</v>
       </c>
       <c r="AC7" t="n">
-        <v>579.836600007995</v>
+        <v>642.7655830452735</v>
       </c>
       <c r="AD7" t="n">
-        <v>468493.9453854133</v>
+        <v>519339.0413000553</v>
       </c>
       <c r="AE7" t="n">
-        <v>641014.0845704847</v>
+        <v>710582.5879282176</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.678914009283588e-06</v>
+        <v>3.905552003299392e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.63125</v>
       </c>
       <c r="AH7" t="n">
-        <v>579836.600007995</v>
+        <v>642765.5830452736</v>
       </c>
     </row>
   </sheetData>
@@ -7846,28 +7846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>375.2760969766362</v>
+        <v>434.5883111158432</v>
       </c>
       <c r="AB2" t="n">
-        <v>513.4693118963684</v>
+        <v>594.622899951844</v>
       </c>
       <c r="AC2" t="n">
-        <v>464.4645214276836</v>
+        <v>537.872924938921</v>
       </c>
       <c r="AD2" t="n">
-        <v>375276.0969766362</v>
+        <v>434588.3111158432</v>
       </c>
       <c r="AE2" t="n">
-        <v>513469.3118963684</v>
+        <v>594622.899951844</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.676028152400293e-06</v>
+        <v>4.287625692944456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.93333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>464464.5214276836</v>
+        <v>537872.924938921</v>
       </c>
     </row>
     <row r="3">
@@ -7952,28 +7952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.2093693841928</v>
+        <v>436.5215835233999</v>
       </c>
       <c r="AB3" t="n">
-        <v>516.1145004943467</v>
+        <v>597.2680885498222</v>
       </c>
       <c r="AC3" t="n">
-        <v>466.8572569384163</v>
+        <v>540.2656604496536</v>
       </c>
       <c r="AD3" t="n">
-        <v>377209.3693841928</v>
+        <v>436521.5835233999</v>
       </c>
       <c r="AE3" t="n">
-        <v>516114.5004943466</v>
+        <v>597268.0885498222</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.682113695653695e-06</v>
+        <v>4.297376162716384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.90208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>466857.2569384163</v>
+        <v>540265.6604496536</v>
       </c>
     </row>
   </sheetData>
@@ -8249,28 +8249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1136.389565219574</v>
+        <v>1226.784224552133</v>
       </c>
       <c r="AB2" t="n">
-        <v>1554.858337102761</v>
+        <v>1678.540297932484</v>
       </c>
       <c r="AC2" t="n">
-        <v>1406.464839667055</v>
+        <v>1518.342767743911</v>
       </c>
       <c r="AD2" t="n">
-        <v>1136389.565219574</v>
+        <v>1226784.224552133</v>
       </c>
       <c r="AE2" t="n">
-        <v>1554858.337102761</v>
+        <v>1678540.297932483</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.629686766777775e-06</v>
+        <v>2.419829309101904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.87708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1406464.839667055</v>
+        <v>1518342.767743911</v>
       </c>
     </row>
     <row r="3">
@@ -8355,28 +8355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>580.0863721462973</v>
+        <v>637.7188619001078</v>
       </c>
       <c r="AB3" t="n">
-        <v>793.6997659751391</v>
+        <v>872.5550810223051</v>
       </c>
       <c r="AC3" t="n">
-        <v>717.950174275089</v>
+        <v>789.2796487282832</v>
       </c>
       <c r="AD3" t="n">
-        <v>580086.3721462974</v>
+        <v>637718.8619001077</v>
       </c>
       <c r="AE3" t="n">
-        <v>793699.7659751391</v>
+        <v>872555.0810223051</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.396717090269308e-06</v>
+        <v>3.558749066930326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.51666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>717950.1742750891</v>
+        <v>789279.6487282831</v>
       </c>
     </row>
     <row r="4">
@@ -8461,28 +8461,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>465.5653318958335</v>
+        <v>514.8793574816503</v>
       </c>
       <c r="AB4" t="n">
-        <v>637.0070263927329</v>
+        <v>704.4806517805115</v>
       </c>
       <c r="AC4" t="n">
-        <v>576.2119698387864</v>
+        <v>637.2460071193834</v>
       </c>
       <c r="AD4" t="n">
-        <v>465565.3318958335</v>
+        <v>514879.3574816503</v>
       </c>
       <c r="AE4" t="n">
-        <v>637007.0263927329</v>
+        <v>704480.6517805115</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.674888030615214e-06</v>
+        <v>3.971789295342052e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.11041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>576211.9698387864</v>
+        <v>637246.0071193834</v>
       </c>
     </row>
     <row r="5">
@@ -8567,28 +8567,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>432.4396655744253</v>
+        <v>481.8389425062628</v>
       </c>
       <c r="AB5" t="n">
-        <v>591.6830283305247</v>
+        <v>659.2732983709527</v>
       </c>
       <c r="AC5" t="n">
-        <v>535.2136305390046</v>
+        <v>596.3531800703139</v>
       </c>
       <c r="AD5" t="n">
-        <v>432439.6655744253</v>
+        <v>481838.9425062627</v>
       </c>
       <c r="AE5" t="n">
-        <v>591683.0283305247</v>
+        <v>659273.2983709527</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.740038183776161e-06</v>
+        <v>4.068527057055028e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>535213.6305390046</v>
+        <v>596353.1800703139</v>
       </c>
     </row>
     <row r="6">
@@ -8673,28 +8673,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>434.3675410698181</v>
+        <v>483.7668180016555</v>
       </c>
       <c r="AB6" t="n">
-        <v>594.3208326351853</v>
+        <v>661.9111026756133</v>
       </c>
       <c r="AC6" t="n">
-        <v>537.59968650301</v>
+        <v>598.7392360343192</v>
       </c>
       <c r="AD6" t="n">
-        <v>434367.5410698181</v>
+        <v>483766.8180016555</v>
       </c>
       <c r="AE6" t="n">
-        <v>594320.8326351853</v>
+        <v>661911.1026756132</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.740193673401844e-06</v>
+        <v>4.068757934767947e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.82083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>537599.6865030101</v>
+        <v>598739.2360343193</v>
       </c>
     </row>
   </sheetData>
@@ -8970,28 +8970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1442.222685308256</v>
+        <v>1534.081001300349</v>
       </c>
       <c r="AB2" t="n">
-        <v>1973.312704413108</v>
+        <v>2098.99730485638</v>
       </c>
       <c r="AC2" t="n">
-        <v>1784.982509465695</v>
+        <v>1898.671948042106</v>
       </c>
       <c r="AD2" t="n">
-        <v>1442222.685308256</v>
+        <v>1534081.001300349</v>
       </c>
       <c r="AE2" t="n">
-        <v>1973312.704413108</v>
+        <v>2098997.30485638</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.437259098854194e-06</v>
+        <v>2.113406832488634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1784982.509465695</v>
+        <v>1898671.948042106</v>
       </c>
     </row>
     <row r="3">
@@ -9076,28 +9076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>669.8546785478786</v>
+        <v>728.2789700533849</v>
       </c>
       <c r="AB3" t="n">
-        <v>916.5247230919572</v>
+        <v>996.4634162276215</v>
       </c>
       <c r="AC3" t="n">
-        <v>829.0528898705879</v>
+        <v>901.362346328045</v>
       </c>
       <c r="AD3" t="n">
-        <v>669854.6785478786</v>
+        <v>728278.9700533849</v>
       </c>
       <c r="AE3" t="n">
-        <v>916524.7230919572</v>
+        <v>996463.4162276215</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.246231519345583e-06</v>
+        <v>3.302954244033541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.12916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>829052.889870588</v>
+        <v>901362.346328045</v>
       </c>
     </row>
     <row r="4">
@@ -9182,28 +9182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>529.6180136021694</v>
+        <v>579.8543911866212</v>
       </c>
       <c r="AB4" t="n">
-        <v>724.6467313082234</v>
+        <v>793.3823593918328</v>
       </c>
       <c r="AC4" t="n">
-        <v>655.4874643202407</v>
+        <v>717.6630605306104</v>
       </c>
       <c r="AD4" t="n">
-        <v>529618.0136021695</v>
+        <v>579854.3911866213</v>
       </c>
       <c r="AE4" t="n">
-        <v>724646.7313082233</v>
+        <v>793382.3593918327</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.536760785989101e-06</v>
+        <v>3.730160819140158e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5125</v>
       </c>
       <c r="AH4" t="n">
-        <v>655487.4643202408</v>
+        <v>717663.0605306104</v>
       </c>
     </row>
     <row r="5">
@@ -9288,28 +9288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>458.7099566191625</v>
+        <v>508.8609933490427</v>
       </c>
       <c r="AB5" t="n">
-        <v>627.6271995013797</v>
+        <v>696.2460604627911</v>
       </c>
       <c r="AC5" t="n">
-        <v>567.7273404612741</v>
+        <v>629.7973136397048</v>
       </c>
       <c r="AD5" t="n">
-        <v>458709.9566191625</v>
+        <v>508860.9933490427</v>
       </c>
       <c r="AE5" t="n">
-        <v>627627.1995013796</v>
+        <v>696246.0604627911</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.689871385347641e-06</v>
+        <v>3.955301148443855e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>567727.3404612741</v>
+        <v>629797.3136397048</v>
       </c>
     </row>
     <row r="6">
@@ -9394,28 +9394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>451.0475210605524</v>
+        <v>501.1985577904326</v>
       </c>
       <c r="AB6" t="n">
-        <v>617.1431171272902</v>
+        <v>685.7619780887018</v>
       </c>
       <c r="AC6" t="n">
-        <v>558.2438441944657</v>
+        <v>620.3138173728964</v>
       </c>
       <c r="AD6" t="n">
-        <v>451047.5210605524</v>
+        <v>501198.5577904326</v>
       </c>
       <c r="AE6" t="n">
-        <v>617143.1171272902</v>
+        <v>685761.9780887017</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.707696201392367e-06</v>
+        <v>3.981511515138913e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.72291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>558243.8441944658</v>
+        <v>620313.8173728965</v>
       </c>
     </row>
     <row r="7">
@@ -9500,28 +9500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>451.9116801507875</v>
+        <v>502.0627168806677</v>
       </c>
       <c r="AB7" t="n">
-        <v>618.3254977185583</v>
+        <v>686.9443586799699</v>
       </c>
       <c r="AC7" t="n">
-        <v>559.3133800415849</v>
+        <v>621.3833532200156</v>
       </c>
       <c r="AD7" t="n">
-        <v>451911.6801507875</v>
+        <v>502062.7168806677</v>
       </c>
       <c r="AE7" t="n">
-        <v>618325.4977185583</v>
+        <v>686944.3586799699</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.711961969334694e-06</v>
+        <v>3.987784081527473e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.70416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>559313.3800415848</v>
+        <v>621383.3532200155</v>
       </c>
     </row>
   </sheetData>
@@ -9797,28 +9797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2345.055043591832</v>
+        <v>2473.614290007627</v>
       </c>
       <c r="AB2" t="n">
-        <v>3208.607767169457</v>
+        <v>3384.508199749225</v>
       </c>
       <c r="AC2" t="n">
-        <v>2902.382745179967</v>
+        <v>3061.495487352124</v>
       </c>
       <c r="AD2" t="n">
-        <v>2345055.043591832</v>
+        <v>2473614.290007627</v>
       </c>
       <c r="AE2" t="n">
-        <v>3208607.767169456</v>
+        <v>3384508.199749225</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.097291822340604e-06</v>
+        <v>1.587531640351207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.92083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2902382.745179967</v>
+        <v>3061495.487352124</v>
       </c>
     </row>
     <row r="3">
@@ -9903,28 +9903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>858.9186635525899</v>
+        <v>927.4040330186311</v>
       </c>
       <c r="AB3" t="n">
-        <v>1175.210408289749</v>
+        <v>1268.915112154451</v>
       </c>
       <c r="AC3" t="n">
-        <v>1063.049976340742</v>
+        <v>1147.811634783974</v>
       </c>
       <c r="AD3" t="n">
-        <v>858918.6635525899</v>
+        <v>927404.0330186312</v>
       </c>
       <c r="AE3" t="n">
-        <v>1175210.408289749</v>
+        <v>1268915.112154451</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.97930151818608e-06</v>
+        <v>2.863599018912791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.47708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1063049.976340742</v>
+        <v>1147811.634783974</v>
       </c>
     </row>
     <row r="4">
@@ -10009,28 +10009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>665.9164853479509</v>
+        <v>725.8198596056629</v>
       </c>
       <c r="AB4" t="n">
-        <v>911.1363134149941</v>
+        <v>993.0987528247522</v>
       </c>
       <c r="AC4" t="n">
-        <v>824.1787424505138</v>
+        <v>898.3188016780106</v>
       </c>
       <c r="AD4" t="n">
-        <v>665916.4853479509</v>
+        <v>725819.859605663</v>
       </c>
       <c r="AE4" t="n">
-        <v>911136.3134149942</v>
+        <v>993098.7528247521</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.2966367838804e-06</v>
+        <v>3.322710956714708e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.33958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>824178.7424505139</v>
+        <v>898318.8016780106</v>
       </c>
     </row>
     <row r="5">
@@ -10115,28 +10115,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>578.2441061930933</v>
+        <v>629.6508260970479</v>
       </c>
       <c r="AB5" t="n">
-        <v>791.1790964229276</v>
+        <v>861.5160384999394</v>
       </c>
       <c r="AC5" t="n">
-        <v>715.6700738871587</v>
+        <v>779.2941569308589</v>
       </c>
       <c r="AD5" t="n">
-        <v>578244.1061930934</v>
+        <v>629650.8260970479</v>
       </c>
       <c r="AE5" t="n">
-        <v>791179.0964229276</v>
+        <v>861516.0384999395</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.471185885075562e-06</v>
+        <v>3.575243797387032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.39791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>715670.0738871587</v>
+        <v>779294.1569308589</v>
       </c>
     </row>
     <row r="6">
@@ -10221,28 +10221,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>521.8600447114516</v>
+        <v>581.7633294606125</v>
       </c>
       <c r="AB6" t="n">
-        <v>714.0319360145108</v>
+        <v>795.9942529547204</v>
       </c>
       <c r="AC6" t="n">
-        <v>645.8857301914015</v>
+        <v>720.0256786376719</v>
       </c>
       <c r="AD6" t="n">
-        <v>521860.0447114516</v>
+        <v>581763.3294606125</v>
       </c>
       <c r="AE6" t="n">
-        <v>714031.9360145108</v>
+        <v>795994.2529547204</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.573386074907607e-06</v>
+        <v>3.723104222212024e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.90416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>645885.7301914016</v>
+        <v>720025.678637672</v>
       </c>
     </row>
     <row r="7">
@@ -10327,28 +10327,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>488.2976543437964</v>
+        <v>539.7896255937715</v>
       </c>
       <c r="AB7" t="n">
-        <v>668.1103928453225</v>
+        <v>738.5639795749837</v>
       </c>
       <c r="AC7" t="n">
-        <v>604.3468746509898</v>
+        <v>668.0764699454023</v>
       </c>
       <c r="AD7" t="n">
-        <v>488297.6543437964</v>
+        <v>539789.6255937715</v>
       </c>
       <c r="AE7" t="n">
-        <v>668110.3928453225</v>
+        <v>738563.9795749837</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.638382454628131e-06</v>
+        <v>3.817139197424464e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.6125</v>
       </c>
       <c r="AH7" t="n">
-        <v>604346.8746509898</v>
+        <v>668076.4699454024</v>
       </c>
     </row>
     <row r="8">
@@ -10433,28 +10433,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>485.5418302156351</v>
+        <v>537.0338014656101</v>
       </c>
       <c r="AB8" t="n">
-        <v>664.3397526947922</v>
+        <v>734.7933394244536</v>
       </c>
       <c r="AC8" t="n">
-        <v>600.9360991042996</v>
+        <v>664.6656943987119</v>
       </c>
       <c r="AD8" t="n">
-        <v>485541.8302156351</v>
+        <v>537033.80146561</v>
       </c>
       <c r="AE8" t="n">
-        <v>664339.7526947922</v>
+        <v>734793.3394244537</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.646470239434983e-06</v>
+        <v>3.828840382122845e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.575</v>
       </c>
       <c r="AH8" t="n">
-        <v>600936.0991042996</v>
+        <v>664665.6943987119</v>
       </c>
     </row>
     <row r="9">
@@ -10539,28 +10539,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>486.8511170234923</v>
+        <v>538.3430882734673</v>
       </c>
       <c r="AB9" t="n">
-        <v>666.1311766669597</v>
+        <v>736.5847633966213</v>
       </c>
       <c r="AC9" t="n">
-        <v>602.5565520868427</v>
+        <v>666.2861473812552</v>
       </c>
       <c r="AD9" t="n">
-        <v>486851.1170234923</v>
+        <v>538343.0882734673</v>
       </c>
       <c r="AE9" t="n">
-        <v>666131.1766669598</v>
+        <v>736584.7633966212</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.646617290067835e-06</v>
+        <v>3.829053130935543e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.575</v>
       </c>
       <c r="AH9" t="n">
-        <v>602556.5520868427</v>
+        <v>666286.1473812552</v>
       </c>
     </row>
   </sheetData>
@@ -10836,28 +10836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>894.0072875071494</v>
+        <v>974.7946981299954</v>
       </c>
       <c r="AB2" t="n">
-        <v>1223.220211585214</v>
+        <v>1333.757110888408</v>
       </c>
       <c r="AC2" t="n">
-        <v>1106.47779139187</v>
+        <v>1206.465204165079</v>
       </c>
       <c r="AD2" t="n">
-        <v>894007.2875071494</v>
+        <v>974794.6981299954</v>
       </c>
       <c r="AE2" t="n">
-        <v>1223220.211585214</v>
+        <v>1333757.110888408</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.846832750333552e-06</v>
+        <v>2.773360325871491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.94583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1106477.79139187</v>
+        <v>1206465.204165079</v>
       </c>
     </row>
     <row r="3">
@@ -10942,28 +10942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.8715662981284</v>
+        <v>548.4568900759492</v>
       </c>
       <c r="AB3" t="n">
-        <v>673.0003768511073</v>
+        <v>750.4229132122219</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.7701654463981</v>
+        <v>678.8036036004203</v>
       </c>
       <c r="AD3" t="n">
-        <v>491871.5662981283</v>
+        <v>548456.8900759493</v>
       </c>
       <c r="AE3" t="n">
-        <v>673000.3768511072</v>
+        <v>750422.9132122219</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.567175475246148e-06</v>
+        <v>3.855087912704646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.91041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>608770.1654463981</v>
+        <v>678803.6036004203</v>
       </c>
     </row>
     <row r="4">
@@ -11048,28 +11048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>414.8369268058377</v>
+        <v>471.336909729087</v>
       </c>
       <c r="AB4" t="n">
-        <v>567.5981845693168</v>
+        <v>644.903953808234</v>
       </c>
       <c r="AC4" t="n">
-        <v>513.4274104630759</v>
+        <v>583.3552255851592</v>
       </c>
       <c r="AD4" t="n">
-        <v>414836.9268058377</v>
+        <v>471336.909729087</v>
       </c>
       <c r="AE4" t="n">
-        <v>567598.1845693168</v>
+        <v>644903.953808234</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.76555607992062e-06</v>
+        <v>4.152993014467223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.98333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>513427.4104630759</v>
+        <v>583355.2255851593</v>
       </c>
     </row>
     <row r="5">
@@ -11154,28 +11154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>416.762278485167</v>
+        <v>473.2622614084163</v>
       </c>
       <c r="AB5" t="n">
-        <v>570.2325356774965</v>
+        <v>647.5383049164137</v>
       </c>
       <c r="AC5" t="n">
-        <v>515.8103427988259</v>
+        <v>585.7381579209093</v>
       </c>
       <c r="AD5" t="n">
-        <v>416762.278485167</v>
+        <v>473262.2614084163</v>
       </c>
       <c r="AE5" t="n">
-        <v>570232.5356774965</v>
+        <v>647538.3049164137</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.765874252502295e-06</v>
+        <v>4.153470809337732e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.98333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>515810.3427988259</v>
+        <v>585738.1579209093</v>
       </c>
     </row>
     <row r="6">
@@ -11260,28 +11260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>417.9193593200979</v>
+        <v>474.4193422433472</v>
       </c>
       <c r="AB6" t="n">
-        <v>571.8157047226526</v>
+        <v>649.1214739615698</v>
       </c>
       <c r="AC6" t="n">
-        <v>517.242416412304</v>
+        <v>587.1702315343874</v>
       </c>
       <c r="AD6" t="n">
-        <v>417919.3593200979</v>
+        <v>474419.3422433472</v>
       </c>
       <c r="AE6" t="n">
-        <v>571815.7047226527</v>
+        <v>649121.4739615698</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.769851409773235e-06</v>
+        <v>4.159443245219099e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.96666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>517242.416412304</v>
+        <v>587170.2315343875</v>
       </c>
     </row>
   </sheetData>
@@ -11557,28 +11557,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>608.1976488797587</v>
+        <v>670.89259261581</v>
       </c>
       <c r="AB2" t="n">
-        <v>832.1628549838629</v>
+        <v>917.9448429092379</v>
       </c>
       <c r="AC2" t="n">
-        <v>752.7424000521046</v>
+        <v>830.3374754456582</v>
       </c>
       <c r="AD2" t="n">
-        <v>608197.6488797588</v>
+        <v>670892.59261581</v>
       </c>
       <c r="AE2" t="n">
-        <v>832162.8549838628</v>
+        <v>917944.8429092378</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.240469233157115e-06</v>
+        <v>3.436312402324261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.41041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>752742.4000521046</v>
+        <v>830337.4754456582</v>
       </c>
     </row>
     <row r="3">
@@ -11663,28 +11663,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>397.4787370177272</v>
+        <v>444.5426376241892</v>
       </c>
       <c r="AB3" t="n">
-        <v>543.8479435119374</v>
+        <v>608.2428486344546</v>
       </c>
       <c r="AC3" t="n">
-        <v>491.94385907854</v>
+        <v>550.1930048349811</v>
       </c>
       <c r="AD3" t="n">
-        <v>397478.7370177272</v>
+        <v>444542.6376241893</v>
       </c>
       <c r="AE3" t="n">
-        <v>543847.9435119374</v>
+        <v>608242.8486344547</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.785672175249342e-06</v>
+        <v>4.272515642238966e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.39375</v>
       </c>
       <c r="AH3" t="n">
-        <v>491943.85907854</v>
+        <v>550193.0048349812</v>
       </c>
     </row>
     <row r="4">
@@ -11769,28 +11769,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.7849608048604</v>
+        <v>445.8488614113224</v>
       </c>
       <c r="AB4" t="n">
-        <v>545.6351765240192</v>
+        <v>610.0300816465365</v>
       </c>
       <c r="AC4" t="n">
-        <v>493.5605210803461</v>
+        <v>551.8096668367873</v>
       </c>
       <c r="AD4" t="n">
-        <v>398784.9608048603</v>
+        <v>445848.8614113224</v>
       </c>
       <c r="AE4" t="n">
-        <v>545635.1765240192</v>
+        <v>610030.0816465365</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.789649339568555e-06</v>
+        <v>4.278615605083328e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>493560.5210803461</v>
+        <v>551809.6668367872</v>
       </c>
     </row>
     <row r="5">
@@ -11875,28 +11875,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>400.0791605034134</v>
+        <v>447.1430611098754</v>
       </c>
       <c r="AB5" t="n">
-        <v>547.4059576476407</v>
+        <v>611.8008627701579</v>
       </c>
       <c r="AC5" t="n">
-        <v>495.162301338836</v>
+        <v>553.4114470952771</v>
       </c>
       <c r="AD5" t="n">
-        <v>400079.1605034134</v>
+        <v>447143.0611098754</v>
       </c>
       <c r="AE5" t="n">
-        <v>547405.9576476406</v>
+        <v>611800.8627701579</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.793460788707802e-06</v>
+        <v>4.284461402809175e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.35833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>495162.301338836</v>
+        <v>553411.4470952771</v>
       </c>
     </row>
   </sheetData>
@@ -21329,28 +21329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.1708285459742</v>
+        <v>493.848649176614</v>
       </c>
       <c r="AB2" t="n">
-        <v>602.2611465830364</v>
+        <v>675.7055088681919</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.7821880319786</v>
+        <v>611.2171234604489</v>
       </c>
       <c r="AD2" t="n">
-        <v>440170.8285459742</v>
+        <v>493848.649176614</v>
       </c>
       <c r="AE2" t="n">
-        <v>602261.1465830364</v>
+        <v>675705.508868192</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.579770671391952e-06</v>
+        <v>4.030840787130394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>544782.1880319787</v>
+        <v>611217.1234604489</v>
       </c>
     </row>
     <row r="3">
@@ -21435,28 +21435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>381.3807574542645</v>
+        <v>434.9732372303328</v>
       </c>
       <c r="AB3" t="n">
-        <v>521.8219776804723</v>
+        <v>595.1495728434303</v>
       </c>
       <c r="AC3" t="n">
-        <v>472.0200205123928</v>
+        <v>538.3493329089242</v>
       </c>
       <c r="AD3" t="n">
-        <v>381380.7574542646</v>
+        <v>434973.2372303328</v>
       </c>
       <c r="AE3" t="n">
-        <v>521821.9776804723</v>
+        <v>595149.5728434303</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.773309184781646e-06</v>
+        <v>4.333240896683867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.87708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>472020.0205123928</v>
+        <v>538349.3329089242</v>
       </c>
     </row>
     <row r="4">
@@ -21541,28 +21541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.858598874995</v>
+        <v>437.4510786510633</v>
       </c>
       <c r="AB4" t="n">
-        <v>525.2122696269641</v>
+        <v>598.5398647899221</v>
       </c>
       <c r="AC4" t="n">
-        <v>475.0867477538161</v>
+        <v>541.4160601503474</v>
       </c>
       <c r="AD4" t="n">
-        <v>383858.598874995</v>
+        <v>437451.0786510633</v>
       </c>
       <c r="AE4" t="n">
-        <v>525212.2696269641</v>
+        <v>598539.8647899221</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.773480609505641e-06</v>
+        <v>4.333508744433693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.87708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>475086.7477538161</v>
+        <v>541416.0601503474</v>
       </c>
     </row>
   </sheetData>
@@ -21838,28 +21838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>387.5103932394093</v>
+        <v>438.5527758621132</v>
       </c>
       <c r="AB2" t="n">
-        <v>530.2088157821529</v>
+        <v>600.0472555175314</v>
       </c>
       <c r="AC2" t="n">
-        <v>479.6064305566501</v>
+        <v>542.7795876225499</v>
       </c>
       <c r="AD2" t="n">
-        <v>387510.3932394093</v>
+        <v>438552.7758621132</v>
       </c>
       <c r="AE2" t="n">
-        <v>530208.8157821529</v>
+        <v>600047.2555175314</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.552691442695583e-06</v>
+        <v>4.160060319318429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.01666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>479606.4305566502</v>
+        <v>542779.58762255</v>
       </c>
     </row>
     <row r="3">
@@ -21944,28 +21944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>383.5623226989031</v>
+        <v>441.8110311176492</v>
       </c>
       <c r="AB3" t="n">
-        <v>524.806891492053</v>
+        <v>604.5053441022325</v>
       </c>
       <c r="AC3" t="n">
-        <v>474.7200583391489</v>
+        <v>546.8122024896937</v>
       </c>
       <c r="AD3" t="n">
-        <v>383562.3226989032</v>
+        <v>441811.0311176492</v>
       </c>
       <c r="AE3" t="n">
-        <v>524806.8914920529</v>
+        <v>604505.3441022325</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.555451308029332e-06</v>
+        <v>4.164558005983398e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>474720.0583391489</v>
+        <v>546812.2024896938</v>
       </c>
     </row>
   </sheetData>
@@ -22241,28 +22241,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1277.334628505373</v>
+        <v>1368.518439682235</v>
       </c>
       <c r="AB2" t="n">
-        <v>1747.705590747735</v>
+        <v>1872.467303945755</v>
       </c>
       <c r="AC2" t="n">
-        <v>1580.907022086973</v>
+        <v>1693.761652481538</v>
       </c>
       <c r="AD2" t="n">
-        <v>1277334.628505373</v>
+        <v>1368518.439682235</v>
       </c>
       <c r="AE2" t="n">
-        <v>1747705.590747735</v>
+        <v>1872467.303945755</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.530542252853876e-06</v>
+        <v>2.261193745253448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.94375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1580907.022086974</v>
+        <v>1693761.652481538</v>
       </c>
     </row>
     <row r="3">
@@ -22347,28 +22347,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>620.2356275820538</v>
+        <v>678.3159970566021</v>
       </c>
       <c r="AB3" t="n">
-        <v>848.6337485224817</v>
+        <v>928.10187236262</v>
       </c>
       <c r="AC3" t="n">
-        <v>767.6413346284419</v>
+        <v>839.5251322634899</v>
       </c>
       <c r="AD3" t="n">
-        <v>620235.6275820538</v>
+        <v>678315.9970566022</v>
       </c>
       <c r="AE3" t="n">
-        <v>848633.7485224818</v>
+        <v>928101.8723626201</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.319586253319813e-06</v>
+        <v>3.426912205659568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.81875</v>
       </c>
       <c r="AH3" t="n">
-        <v>767641.3346284418</v>
+        <v>839525.1322634899</v>
       </c>
     </row>
     <row r="4">
@@ -22453,28 +22453,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>498.4419323963164</v>
+        <v>548.139854885623</v>
       </c>
       <c r="AB4" t="n">
-        <v>681.9902416107428</v>
+        <v>749.9891316782121</v>
       </c>
       <c r="AC4" t="n">
-        <v>616.9020501307284</v>
+        <v>678.4112215672001</v>
       </c>
       <c r="AD4" t="n">
-        <v>498441.9323963164</v>
+        <v>548139.854885623</v>
       </c>
       <c r="AE4" t="n">
-        <v>681990.2416107429</v>
+        <v>749989.1316782121</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.601937216825077e-06</v>
+        <v>3.844052099350136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.32083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>616902.0501307284</v>
+        <v>678411.2215672</v>
       </c>
     </row>
     <row r="5">
@@ -22559,28 +22559,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>439.5140132993267</v>
+        <v>489.2971871346539</v>
       </c>
       <c r="AB5" t="n">
-        <v>601.3624629859297</v>
+        <v>669.4779977060484</v>
       </c>
       <c r="AC5" t="n">
-        <v>543.9692735360695</v>
+        <v>605.5839572232536</v>
       </c>
       <c r="AD5" t="n">
-        <v>439514.0132993267</v>
+        <v>489297.1871346539</v>
       </c>
       <c r="AE5" t="n">
-        <v>601362.4629859297</v>
+        <v>669477.9977060484</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.728264269161764e-06</v>
+        <v>4.030685261595342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>543969.2735360696</v>
+        <v>605583.9572232536</v>
       </c>
     </row>
     <row r="6">
@@ -22665,28 +22665,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>440.8476150798076</v>
+        <v>490.6307889151348</v>
       </c>
       <c r="AB6" t="n">
-        <v>603.1871557763418</v>
+        <v>671.3026904964605</v>
       </c>
       <c r="AC6" t="n">
-        <v>545.6198202075373</v>
+        <v>607.234503894721</v>
       </c>
       <c r="AD6" t="n">
-        <v>440847.6150798076</v>
+        <v>490630.7889151348</v>
       </c>
       <c r="AE6" t="n">
-        <v>603187.1557763418</v>
+        <v>671302.6904964605</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.728725878366405e-06</v>
+        <v>4.031367234173584e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.74791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>545619.8202075373</v>
+        <v>607234.503894721</v>
       </c>
     </row>
     <row r="7">
@@ -22771,28 +22771,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>441.4727260930883</v>
+        <v>491.2558999284155</v>
       </c>
       <c r="AB7" t="n">
-        <v>604.0424602426642</v>
+        <v>672.1579949627828</v>
       </c>
       <c r="AC7" t="n">
-        <v>546.393495616021</v>
+        <v>608.008179303205</v>
       </c>
       <c r="AD7" t="n">
-        <v>441472.7260930883</v>
+        <v>491255.8999284155</v>
       </c>
       <c r="AE7" t="n">
-        <v>604042.4602426642</v>
+        <v>672157.9949627828</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.733034230943052e-06</v>
+        <v>4.037732311570496e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.72916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>546393.495616021</v>
+        <v>608008.179303205</v>
       </c>
     </row>
   </sheetData>
@@ -23068,28 +23068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2068.441914378126</v>
+        <v>2179.233439961291</v>
       </c>
       <c r="AB2" t="n">
-        <v>2830.133480469085</v>
+        <v>2981.72333354912</v>
       </c>
       <c r="AC2" t="n">
-        <v>2560.029513210402</v>
+        <v>2697.151843470172</v>
       </c>
       <c r="AD2" t="n">
-        <v>2068441.914378126</v>
+        <v>2179233.439961291</v>
       </c>
       <c r="AE2" t="n">
-        <v>2830133.480469085</v>
+        <v>2981723.33354912</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.17803512588254e-06</v>
+        <v>1.710706109129015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.22291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2560029.513210402</v>
+        <v>2697151.843470172</v>
       </c>
     </row>
     <row r="3">
@@ -23174,28 +23174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>812.342489471996</v>
+        <v>872.0454588654935</v>
       </c>
       <c r="AB3" t="n">
-        <v>1111.4828321169</v>
+        <v>1193.171068750202</v>
       </c>
       <c r="AC3" t="n">
-        <v>1005.404470595615</v>
+        <v>1079.296496574794</v>
       </c>
       <c r="AD3" t="n">
-        <v>812342.4894719961</v>
+        <v>872045.4588654935</v>
       </c>
       <c r="AE3" t="n">
-        <v>1111482.8321169</v>
+        <v>1193171.068750201</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.040098841663672e-06</v>
+        <v>2.962568326684219e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.14166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1005404.470595615</v>
+        <v>1079296.496574794</v>
       </c>
     </row>
     <row r="4">
@@ -23280,28 +23280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>632.4333348950348</v>
+        <v>683.6073214478257</v>
       </c>
       <c r="AB4" t="n">
-        <v>865.32318979297</v>
+        <v>935.3416958314491</v>
       </c>
       <c r="AC4" t="n">
-        <v>782.7379590478528</v>
+        <v>846.0739971416099</v>
       </c>
       <c r="AD4" t="n">
-        <v>632433.3348950348</v>
+        <v>683607.3214478258</v>
       </c>
       <c r="AE4" t="n">
-        <v>865323.18979297</v>
+        <v>935341.6958314491</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.35532888290046e-06</v>
+        <v>3.420335625363676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.11458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>782737.9590478528</v>
+        <v>846073.9971416099</v>
       </c>
     </row>
     <row r="5">
@@ -23386,28 +23386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>551.2627754267448</v>
+        <v>602.3514211249641</v>
       </c>
       <c r="AB5" t="n">
-        <v>754.2620493361057</v>
+        <v>824.1637882523872</v>
       </c>
       <c r="AC5" t="n">
-        <v>682.2763379609019</v>
+        <v>745.5067530227203</v>
       </c>
       <c r="AD5" t="n">
-        <v>551262.7754267448</v>
+        <v>602351.421124964</v>
       </c>
       <c r="AE5" t="n">
-        <v>754262.0493361057</v>
+        <v>824163.7882523872</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.521543782348456e-06</v>
+        <v>3.661707752277915e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>682276.3379609019</v>
+        <v>745506.7530227203</v>
       </c>
     </row>
     <row r="6">
@@ -23492,28 +23492,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>493.575137290765</v>
+        <v>544.749034335005</v>
       </c>
       <c r="AB6" t="n">
-        <v>675.3312778394808</v>
+        <v>745.3496614084115</v>
       </c>
       <c r="AC6" t="n">
-        <v>610.8786085158813</v>
+        <v>674.2145358284121</v>
       </c>
       <c r="AD6" t="n">
-        <v>493575.1372907651</v>
+        <v>544749.034335005</v>
       </c>
       <c r="AE6" t="n">
-        <v>675331.2778394808</v>
+        <v>745349.6614084116</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.629190541491404e-06</v>
+        <v>3.818029040538162e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>610878.6085158814</v>
+        <v>674214.535828412</v>
       </c>
     </row>
     <row r="7">
@@ -23598,28 +23598,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>477.1944547614751</v>
+        <v>528.3683518057152</v>
       </c>
       <c r="AB7" t="n">
-        <v>652.9185053381963</v>
+        <v>722.936888907127</v>
       </c>
       <c r="AC7" t="n">
-        <v>590.6048795655956</v>
+        <v>653.9408068781262</v>
       </c>
       <c r="AD7" t="n">
-        <v>477194.4547614752</v>
+        <v>528368.3518057151</v>
       </c>
       <c r="AE7" t="n">
-        <v>652918.5053381963</v>
+        <v>722936.888907127</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.659883212486707e-06</v>
+        <v>3.862599986364432e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.6125</v>
       </c>
       <c r="AH7" t="n">
-        <v>590604.8795655956</v>
+        <v>653940.8068781262</v>
       </c>
     </row>
     <row r="8">
@@ -23704,28 +23704,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>477.8381683472432</v>
+        <v>529.0120653914831</v>
       </c>
       <c r="AB8" t="n">
-        <v>653.7992626648831</v>
+        <v>723.817646233814</v>
       </c>
       <c r="AC8" t="n">
-        <v>591.4015786491742</v>
+        <v>654.7375059617049</v>
       </c>
       <c r="AD8" t="n">
-        <v>477838.1683472432</v>
+        <v>529012.0653914831</v>
       </c>
       <c r="AE8" t="n">
-        <v>653799.2626648832</v>
+        <v>723817.646233814</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.664479699447356e-06</v>
+        <v>3.869274862309428e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.59375</v>
       </c>
       <c r="AH8" t="n">
-        <v>591401.5786491742</v>
+        <v>654737.5059617049</v>
       </c>
     </row>
   </sheetData>
@@ -24001,28 +24001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.6817554869606</v>
+        <v>469.5521390187184</v>
       </c>
       <c r="AB2" t="n">
-        <v>555.0716752731763</v>
+        <v>642.4619517837809</v>
       </c>
       <c r="AC2" t="n">
-        <v>502.0964136330928</v>
+        <v>581.1462848065487</v>
       </c>
       <c r="AD2" t="n">
-        <v>405681.7554869606</v>
+        <v>469552.1390187184</v>
       </c>
       <c r="AE2" t="n">
-        <v>555071.6752731763</v>
+        <v>642461.9517837809</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.293898269398857e-06</v>
+        <v>3.823791746827021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.30416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>502096.4136330928</v>
+        <v>581146.2848065487</v>
       </c>
     </row>
   </sheetData>
@@ -24298,28 +24298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>699.257206628161</v>
+        <v>762.7122830886673</v>
       </c>
       <c r="AB2" t="n">
-        <v>956.7545591593904</v>
+        <v>1043.576594213054</v>
       </c>
       <c r="AC2" t="n">
-        <v>865.4432468466748</v>
+        <v>943.9791087303083</v>
       </c>
       <c r="AD2" t="n">
-        <v>699257.206628161</v>
+        <v>762712.2830886673</v>
       </c>
       <c r="AE2" t="n">
-        <v>956754.5591593904</v>
+        <v>1043576.594213054</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.097258620678058e-06</v>
+        <v>3.191831782273154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.22083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>865443.2468466748</v>
+        <v>943979.1087303084</v>
       </c>
     </row>
     <row r="3">
@@ -24404,28 +24404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>414.5428357873045</v>
+        <v>462.112830296179</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.1957962633795</v>
+        <v>632.2831613904649</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.0634255323016</v>
+        <v>571.9389438823487</v>
       </c>
       <c r="AD3" t="n">
-        <v>414542.8357873044</v>
+        <v>462112.830296179</v>
       </c>
       <c r="AE3" t="n">
-        <v>567195.7962633795</v>
+        <v>632283.1613904649</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.753396994724965e-06</v>
+        <v>4.190413118500946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.35625</v>
       </c>
       <c r="AH3" t="n">
-        <v>513063.4255323017</v>
+        <v>571938.9438823487</v>
       </c>
     </row>
     <row r="4">
@@ -24510,28 +24510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.5241068797147</v>
+        <v>454.0941013885895</v>
       </c>
       <c r="AB4" t="n">
-        <v>556.2242176106632</v>
+        <v>621.3115827377486</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.1389589474933</v>
+        <v>562.0144772975403</v>
       </c>
       <c r="AD4" t="n">
-        <v>406524.1068797148</v>
+        <v>454094.1013885895</v>
       </c>
       <c r="AE4" t="n">
-        <v>556224.2176106633</v>
+        <v>621311.5827377486</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.785730344167795e-06</v>
+        <v>4.239621457120434e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.2125</v>
       </c>
       <c r="AH4" t="n">
-        <v>503138.9589474933</v>
+        <v>562014.4772975403</v>
       </c>
     </row>
     <row r="5">
@@ -24616,28 +24616,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>407.6058902399136</v>
+        <v>455.1758847487882</v>
       </c>
       <c r="AB5" t="n">
-        <v>557.7043613290009</v>
+        <v>622.7917264560863</v>
       </c>
       <c r="AC5" t="n">
-        <v>504.4778398267476</v>
+        <v>563.3533581767946</v>
       </c>
       <c r="AD5" t="n">
-        <v>407605.8902399136</v>
+        <v>455175.8847487883</v>
       </c>
       <c r="AE5" t="n">
-        <v>557704.3613290009</v>
+        <v>622791.7264560863</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.789649538039652e-06</v>
+        <v>4.245586104225826e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.19583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>504477.8398267476</v>
+        <v>563353.3581767946</v>
       </c>
     </row>
   </sheetData>
@@ -24913,28 +24913,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1007.866776143263</v>
+        <v>1089.443646819003</v>
       </c>
       <c r="AB2" t="n">
-        <v>1379.007787063269</v>
+        <v>1490.624860439351</v>
       </c>
       <c r="AC2" t="n">
-        <v>1247.397219315534</v>
+        <v>1348.36171586415</v>
       </c>
       <c r="AD2" t="n">
-        <v>1007866.776143263</v>
+        <v>1089443.646819003</v>
       </c>
       <c r="AE2" t="n">
-        <v>1379007.787063268</v>
+        <v>1490624.860439351</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.736366965671308e-06</v>
+        <v>2.592240811796103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.86458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1247397.219315534</v>
+        <v>1348361.71586415</v>
       </c>
     </row>
     <row r="3">
@@ -25019,28 +25019,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>539.5578014812562</v>
+        <v>596.5507573518825</v>
       </c>
       <c r="AB3" t="n">
-        <v>738.2467875968825</v>
+        <v>816.2270641708321</v>
       </c>
       <c r="AC3" t="n">
-        <v>667.7895503245093</v>
+        <v>738.3274987482466</v>
       </c>
       <c r="AD3" t="n">
-        <v>539557.8014812563</v>
+        <v>596550.7573518824</v>
       </c>
       <c r="AE3" t="n">
-        <v>738246.7875968826</v>
+        <v>816227.0641708322</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.479872885687572e-06</v>
+        <v>3.702228750856567e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>667789.5503245093</v>
+        <v>738327.4987482466</v>
       </c>
     </row>
     <row r="4">
@@ -25125,28 +25125,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>428.8737067011864</v>
+        <v>485.8665730632615</v>
       </c>
       <c r="AB4" t="n">
-        <v>586.803926081157</v>
+        <v>664.7840801855582</v>
       </c>
       <c r="AC4" t="n">
-        <v>530.8001829604534</v>
+        <v>601.3380206029642</v>
       </c>
       <c r="AD4" t="n">
-        <v>428873.7067011864</v>
+        <v>485866.5730632615</v>
       </c>
       <c r="AE4" t="n">
-        <v>586803.9260811569</v>
+        <v>664784.0801855582</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.737246366564422e-06</v>
+        <v>4.086464372815116e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.96666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>530800.1829604534</v>
+        <v>601338.0206029642</v>
       </c>
     </row>
     <row r="5">
@@ -25231,28 +25231,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>424.7776041409094</v>
+        <v>481.7704705029846</v>
       </c>
       <c r="AB5" t="n">
-        <v>581.1994578508948</v>
+        <v>659.179611955296</v>
       </c>
       <c r="AC5" t="n">
-        <v>525.7305973121668</v>
+        <v>596.2684349546777</v>
       </c>
       <c r="AD5" t="n">
-        <v>424777.6041409094</v>
+        <v>481770.4705029846</v>
       </c>
       <c r="AE5" t="n">
-        <v>581199.4578508948</v>
+        <v>659179.611955296</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.753125854388834e-06</v>
+        <v>4.110171030003763e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.89791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>525730.5973121668</v>
+        <v>596268.4349546777</v>
       </c>
     </row>
     <row r="6">
@@ -25337,28 +25337,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>425.629677963298</v>
+        <v>474.6270048814852</v>
       </c>
       <c r="AB6" t="n">
-        <v>582.3653028455308</v>
+        <v>649.4056071444992</v>
       </c>
       <c r="AC6" t="n">
-        <v>526.7851756967885</v>
+        <v>587.4272474451217</v>
       </c>
       <c r="AD6" t="n">
-        <v>425629.677963298</v>
+        <v>474627.0048814852</v>
       </c>
       <c r="AE6" t="n">
-        <v>582365.3028455308</v>
+        <v>649405.6071444992</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.757370865985459e-06</v>
+        <v>4.116508453212608e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.87916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>526785.1756967886</v>
+        <v>587427.2474451216</v>
       </c>
     </row>
   </sheetData>
